--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598308.7820235864</v>
+        <v>638640.3216923918</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889757</v>
+        <v>337002.2430554244</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8341311.708736051</v>
+        <v>8323672.938960839</v>
       </c>
     </row>
     <row r="11">
@@ -656,23 +658,23 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>232.3303155802432</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -680,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>41.01657262794531</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1029,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1038,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>20.85462475186305</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>120.2981530655872</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>17.34288063129924</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1274,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>352.84380622259</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>195.8063167794602</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1455,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>218.3734398702018</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,10 +1624,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>257.0152846411282</v>
       </c>
     </row>
     <row r="15">
@@ -1689,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1743,7 +1745,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.33263748886699</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>158.9897392454093</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>394.7936872446451</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1907,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>72.10550041419953</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>165.1786161895363</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.553842565068913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,22 +2323,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.1861186321487</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>171.7731849871842</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.92041677519567</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2561,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>148.846978237604</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>184.2874524547672</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.91401559658163</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>125.8721928563316</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>114.1178110212562</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>16.10100981213265</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2992,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>54.47555601903385</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>43.31785343913981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3320,7 +3322,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>246.4353586549526</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>322.8156897822623</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>155.8860385675339</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>185.069314544756</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3566,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>173.9549552831247</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>230.263497954106</v>
+        <v>82.41147574131224</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>365.9971875312719</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>344.4819914839512</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>10.43941339835959</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>9.693200015577881</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>88.33143849240203</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>364.5180241946285</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>22.35153719005458</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="3">
@@ -4419,7 +4421,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4510,10 +4512,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C5" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D5" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>311.0032413536665</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>311.0032413536665</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>151.765786348211</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>151.765786348211</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>151.765786348211</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="7">
@@ -4744,22 +4746,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>578.0652139363842</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="C8" t="n">
-        <v>578.0652139363842</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="D8" t="n">
-        <v>312.1641695407614</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="E8" t="n">
-        <v>312.1641695407614</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="F8" t="n">
-        <v>46.26312514513859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>46.26312514513859</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806666</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>843.966258332007</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>843.966258332007</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>843.966258332007</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>843.966258332007</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="W8" t="n">
-        <v>843.966258332007</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X8" t="n">
-        <v>843.966258332007</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="Y8" t="n">
-        <v>578.0652139363842</v>
+        <v>506.1786963984127</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.9937723773846</v>
+        <v>560.6897102588252</v>
       </c>
       <c r="C9" t="n">
-        <v>169.9937723773846</v>
+        <v>560.6897102588252</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>560.6897102588252</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>401.4522552533697</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>254.9176972802547</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
-        <v>24.9501803568321</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2210505399123</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>264.2940185443781</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>524.903632156528</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490201</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1035.45007456293</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>1035.45007456293</v>
+        <v>964.057155510636</v>
       </c>
       <c r="V9" t="n">
-        <v>800.2979663311871</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="W9" t="n">
-        <v>546.0606096029854</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="X9" t="n">
-        <v>338.2091093974526</v>
+        <v>728.9050472788933</v>
       </c>
       <c r="Y9" t="n">
-        <v>338.2091093974526</v>
+        <v>728.9050472788933</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.5492509541</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C11" t="n">
-        <v>1954.141365880777</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D11" t="n">
-        <v>1595.875667274027</v>
+        <v>637.5153927816998</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>251.7271401834556</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>251.7271401834556</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>251.7271401834556</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5066,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
         <v>505.8730812692495</v>
@@ -5118,16 +5120,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5142,19 +5144,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2476.569858826099</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C14" t="n">
-        <v>2107.607341885688</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D14" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y14" t="n">
-        <v>2697.149091018222</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
         <v>665.1105362747051</v>
@@ -5358,22 +5360,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5391,7 +5393,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1196.778435292677</v>
+        <v>214.5386780278486</v>
       </c>
       <c r="C17" t="n">
-        <v>1196.778435292677</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D17" t="n">
-        <v>838.5127366859269</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>452.7244840876827</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5515,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5543,22 +5545,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2267.209817970484</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V17" t="n">
-        <v>1936.146930626913</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W17" t="n">
-        <v>1583.378275356799</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X17" t="n">
-        <v>1583.378275356799</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y17" t="n">
-        <v>1583.378275356799</v>
+        <v>601.1385180919704</v>
       </c>
     </row>
     <row r="18">
@@ -5574,19 +5576,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5595,13 +5597,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
         <v>1748.695370517453</v>
@@ -5616,7 +5618,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5677,37 +5679,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>808.6937513590204</v>
+        <v>1387.385938321513</v>
       </c>
       <c r="C20" t="n">
-        <v>439.7312344186087</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="D20" t="n">
-        <v>439.7312344186087</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036446</v>
+        <v>1018.423421381101</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036446</v>
+        <v>607.4375165914937</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2530.302003958085</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2311.667336930148</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U20" t="n">
-        <v>2311.667336930148</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V20" t="n">
-        <v>2311.667336930148</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W20" t="n">
-        <v>1958.898681660034</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X20" t="n">
-        <v>1585.432923398954</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y20" t="n">
-        <v>1195.293591423142</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5838,7 +5840,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
         <v>1748.695370517453</v>
@@ -5850,22 +5852,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>723.5291432316174</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>509.2407200497801</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U22" t="n">
-        <v>2407.975480672791</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V22" t="n">
-        <v>2153.290992466904</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1920.409918978289</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C23" t="n">
-        <v>1551.447402037878</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D23" t="n">
-        <v>1193.181703431127</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E23" t="n">
-        <v>1193.181703431127</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F23" t="n">
-        <v>782.1957986415198</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
-        <v>364.2319905397067</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018223</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y23" t="n">
-        <v>2307.009759042411</v>
+        <v>1290.166034793805</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6087,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>75.07471593672372</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V25" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y25" t="n">
-        <v>211.4036268380755</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2118.304160219349</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C26" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D26" t="n">
-        <v>1749.341643278937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E26" t="n">
-        <v>1363.553390680693</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F26" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6227,16 +6229,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6251,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2491.769918480429</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2491.769918480429</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>2491.769918480429</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>2491.769918480429</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X26" t="n">
-        <v>2118.304160219349</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y26" t="n">
-        <v>2118.304160219349</v>
+        <v>750.1002187247734</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
         <v>2188.831293537797</v>
@@ -6324,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C28" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>103.3510783825681</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6388,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V28" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W28" t="n">
-        <v>600.9853550586245</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X28" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1177.911859172214</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.911859172214</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.911859172214</v>
+        <v>1293.182375355301</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>907.3941227570563</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>496.4082179674487</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>496.4082179674487</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>169.2134980034515</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V29" t="n">
-        <v>2680.885444743341</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W29" t="n">
-        <v>2328.116789473227</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X29" t="n">
-        <v>1954.651031212147</v>
+        <v>2069.921547395234</v>
       </c>
       <c r="Y29" t="n">
-        <v>1564.511699236335</v>
+        <v>1679.782215419422</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6537,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036446</v>
+        <v>2636.818952052699</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036446</v>
+        <v>2467.882769124792</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036446</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036446</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600563</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>550.5654064942403</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>336.276983312403</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>108.9687959810047</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="32">
@@ -6698,13 +6700,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6759,10 +6761,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
         <v>359.3385232961342</v>
@@ -6771,7 +6773,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6792,10 +6794,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W34" t="n">
-        <v>684.3735766921516</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>983.6384645338385</v>
+        <v>1314.552099519291</v>
       </c>
       <c r="C35" t="n">
-        <v>983.6384645338385</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="D35" t="n">
-        <v>625.3727659270879</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E35" t="n">
-        <v>625.3727659270879</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
@@ -6947,16 +6949,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6965,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>1998.383642132976</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1667.320754789405</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1314.552099519291</v>
       </c>
       <c r="X35" t="n">
-        <v>983.6384645338385</v>
+        <v>1314.552099519291</v>
       </c>
       <c r="Y35" t="n">
-        <v>983.6384645338385</v>
+        <v>1314.552099519291</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
         <v>1194.968834417902</v>
@@ -7035,22 +7037,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>500.8207968750361</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>500.8207968750361</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1139.506187451445</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="C38" t="n">
-        <v>1139.506187451445</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="D38" t="n">
-        <v>1139.506187451445</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E38" t="n">
-        <v>1139.506187451445</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G38" t="n">
         <v>534.603677789272</v>
@@ -7169,7 +7171,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7178,46 +7180,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834949</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834949</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V38" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W38" t="n">
-        <v>1916.245359491378</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X38" t="n">
-        <v>1916.245359491378</v>
+        <v>1717.977675241246</v>
       </c>
       <c r="Y38" t="n">
-        <v>1526.106027515566</v>
+        <v>1717.977675241246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,67 +7229,67 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>513.840561024597</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>286.5323736931988</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>53.94298182036446</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="V40" t="n">
-        <v>53.94298182036446</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>417.5768819848216</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>417.5768819848216</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2307.009759042411</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C41" t="n">
-        <v>1938.047242101999</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.781543495249</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E41" t="n">
-        <v>1210.087414675782</v>
+        <v>812.8904941695187</v>
       </c>
       <c r="F41" t="n">
-        <v>799.1015098861748</v>
+        <v>401.9045893799111</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="42">
@@ -7485,10 +7487,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
         <v>266.2060027641994</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.4878438389095</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C43" t="n">
-        <v>64.4878438389095</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D43" t="n">
-        <v>64.4878438389095</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>64.4878438389095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>64.4878438389095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>64.4878438389095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>64.4878438389095</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>500.8207968750361</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V43" t="n">
-        <v>246.1363086691492</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W43" t="n">
-        <v>246.1363086691492</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X43" t="n">
-        <v>246.1363086691492</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y43" t="n">
-        <v>246.1363086691492</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>923.1150787952342</v>
+        <v>1161.086123514381</v>
       </c>
       <c r="C44" t="n">
-        <v>554.1525618548226</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7667,31 +7669,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834949</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.546461473041</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1547.685963578503</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7770,7 +7772,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.52029211334889</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C46" t="n">
-        <v>76.52029211334889</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>76.52029211334889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>76.52029211334889</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>76.52029211334889</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
   </sheetData>
@@ -8067,10 +8069,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>127.806478742992</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>236.7361524834412</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808119</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719077</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K15" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9647,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10118,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719084</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11376,7 +11378,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22568,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22750,13 +22752,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22784,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22863,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22878,10 +22880,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>71.21887160855115</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22917,7 +22919,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22926,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22984,10 +22986,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>317.6726967390153</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23103,22 +23105,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>17.04536409762341</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>182.6223263777756</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23176,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.99691107496236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>12.4290855484175</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>128.116455984897</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23416,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
@@ -23437,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23470,13 +23472,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>164.3604017932788</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>129.2226540149254</v>
       </c>
     </row>
     <row r="15">
@@ -23662,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.08841053406425</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>83.36203824822857</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23710,10 +23712,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,16 +23734,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>206.2831525255983</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>12.08235849706637</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23911,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>341.6786696065955</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237096619435221</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24148,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>142.1113494150889</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>157.498373540188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>16.7366541322084</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -24263,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>214.4647536688694</v>
       </c>
     </row>
     <row r="24">
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>72.67053247541037</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>24.27954241334133</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24449,19 +24451,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>67.60134212005383</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>201.9504862012863</v>
       </c>
     </row>
     <row r="27">
@@ -24601,28 +24603,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>86.05160619575659</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24658,13 +24660,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>126.2654504674964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24698,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>37.81350522360503</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24734,13 +24736,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>311.6512486580023</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24859,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>231.8063182229439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25096,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25132,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>243.2051448974512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>4.788808853336661</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>46.91541089620677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25363,19 +25365,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>69.82361682150326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>221.8067311969554</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25454,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>195.7761453953444</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>56.01837628787175</v>
+        <v>203.8703985006655</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>15.93318254098983</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>69.30217853684383</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25688,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>124.5262083939786</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>45.199959188537</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>242.4444433082501</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>266.3516031282809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,7 +25882,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>21.71991446142505</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>126.2639358281578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>123.9919488199112</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26068,16 +26070,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26086,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945847</v>
+        <v>473796.0964945849</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>492874.1898834555</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829647</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26326,34 +26328,34 @@
         <v>245779.7185133939</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133941</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="N2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="N2" t="n">
-        <v>245779.718513394</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.587572663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835744</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525615</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906352</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="D4" t="n">
-        <v>33719.40849968307</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26433,28 +26435,28 @@
         <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
+        <v>35944.74664026681</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35944.74664026681</v>
+      </c>
+      <c r="J4" t="n">
         <v>35944.74664026682</v>
       </c>
-      <c r="I4" t="n">
-        <v>35944.74664026683</v>
-      </c>
-      <c r="J4" t="n">
-        <v>35944.74664026683</v>
-      </c>
       <c r="K4" t="n">
+        <v>35944.74664026681</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35944.74664026681</v>
+      </c>
+      <c r="M4" t="n">
         <v>35944.74664026682</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35944.74664026682</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35944.74664026683</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>35944.74664026683</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
         <v>35944.74664026682</v>
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26485,31 +26487,31 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793458</v>
+        <v>-21463.97542793459</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361317</v>
+        <v>59305.45610361311</v>
       </c>
       <c r="D6" t="n">
-        <v>36871.72451806856</v>
+        <v>59305.45610361315</v>
       </c>
       <c r="E6" t="n">
-        <v>-247116.9438738569</v>
+        <v>-272242.6802332785</v>
       </c>
       <c r="F6" t="n">
         <v>160603.4938097176</v>
       </c>
       <c r="G6" t="n">
-        <v>160603.4938097175</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="H6" t="n">
-        <v>160603.4938097175</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="I6" t="n">
-        <v>160603.4938097177</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.55121061137</v>
+        <v>97543.5512106114</v>
       </c>
       <c r="K6" t="n">
+        <v>160603.4938097178</v>
+      </c>
+      <c r="L6" t="n">
         <v>160603.4938097176</v>
       </c>
-      <c r="L6" t="n">
-        <v>154977.851581192</v>
-      </c>
       <c r="M6" t="n">
-        <v>58169.37611908245</v>
+        <v>52630.1331356594</v>
       </c>
       <c r="N6" t="n">
-        <v>160603.4938097177</v>
+        <v>160603.4938097176</v>
       </c>
       <c r="O6" t="n">
         <v>160603.4938097176</v>
       </c>
       <c r="P6" t="n">
-        <v>160603.4938097177</v>
+        <v>160603.4938097176</v>
       </c>
     </row>
   </sheetData>
@@ -26741,31 +26743,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="G3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="G3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26805,31 +26807,31 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302973</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400743</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028891</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400754</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31756,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32230,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33041,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34787,10 +34789,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>99.8112771299739</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>107.1444121257231</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516666</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35735,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36118,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,16 +36208,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36683,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37159,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624596</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37637,10 +37639,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
         <v>297.2230414343419</v>
@@ -37789,7 +37791,7 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38035,7 +38037,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38114,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>638640.3216923918</v>
+        <v>570320.5464695441</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554244</v>
+        <v>335414.3901624714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.68099519</v>
+        <v>10905804.67830212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323672.938960839</v>
+        <v>8344276.874268916</v>
       </c>
     </row>
     <row r="11">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.3303155802432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>4.580549094716531</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>102.3487067965264</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>74.5535495391557</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
-        <v>41.01657262794531</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1177,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>156.0399383246468</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>120.2981530655872</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>125.638434068502</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>195.8063167794602</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>43.31175043371133</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>104.7316651123449</v>
       </c>
       <c r="Y14" t="n">
-        <v>257.0152846411282</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>62.33263748886699</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>150.3227969010359</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,19 +1846,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>158.9897392454093</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>97.79015300852296</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>85.87170836083675</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>72.10550041419953</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>219.5718016343158</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>4.553842565068913</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>197.8005813825143</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>171.7731849871842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>94.63926978364054</v>
+        <v>150.5540262346246</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>359.2955842413704</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>184.2874524547672</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>48.91401559658163</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>193.5756411391284</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>114.1178110212562</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>56.33785836205991</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.72683757586824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.0555388225932</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>24.48405841352666</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3094,10 +3094,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>310.191887013951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>118.4077773504827</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>246.4353586549526</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3356,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.5310119231965</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>62.62994551992876</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>173.9549552831247</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.41147574131224</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>344.4819914839512</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.7477710654853</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>41.75100837039722</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>9.693200015577881</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>221.002178698296</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>364.5180241946285</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W2" t="n">
-        <v>752.9257720901863</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.4769954460863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,19 +4433,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>23.90796037760316</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
         <v>19.28114311021272</v>
@@ -4512,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.5764290961142</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="C5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E5" t="n">
-        <v>284.1276524520142</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H5" t="n">
-        <v>40.6788758079141</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>827.8051051802445</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>617.0136766887008</v>
       </c>
       <c r="T5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="U5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="V5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="W5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="X5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.5764290961142</v>
+        <v>513.6311445709973</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>485.4562706347935</v>
+        <v>529.0634452447097</v>
       </c>
       <c r="C6" t="n">
-        <v>311.0032413536665</v>
+        <v>529.0634452447097</v>
       </c>
       <c r="D6" t="n">
-        <v>311.0032413536665</v>
+        <v>380.1290355834584</v>
       </c>
       <c r="E6" t="n">
-        <v>151.765786348211</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F6" t="n">
-        <v>151.765786348211</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G6" t="n">
-        <v>151.765786348211</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>494.0167193695077</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>736.1338244070387</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357626</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>776.0965082357626</v>
       </c>
       <c r="V6" t="n">
-        <v>728.9050472788936</v>
+        <v>776.0965082357626</v>
       </c>
       <c r="W6" t="n">
-        <v>485.4562706347935</v>
+        <v>529.0634452447097</v>
       </c>
       <c r="X6" t="n">
-        <v>485.4562706347935</v>
+        <v>529.0634452447097</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.4562706347935</v>
+        <v>529.0634452447097</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543127</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543127</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543127</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759371</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185851</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424089</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424089</v>
+        <v>698.4535282668868</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424089</v>
+        <v>540.8374289490617</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424089</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="V8" t="n">
-        <v>710.5167634983089</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984127</v>
+        <v>286.9604071117565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.6897102588252</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C9" t="n">
-        <v>560.6897102588252</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D9" t="n">
-        <v>560.6897102588252</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E9" t="n">
-        <v>401.4522552533697</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F9" t="n">
-        <v>254.9176972802547</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>398.824578434775</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>524.7070826368708</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8095319084027</v>
+        <v>785.316696249021</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972852</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P9" t="n">
-        <v>964.057155510636</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T9" t="n">
-        <v>964.057155510636</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U9" t="n">
-        <v>964.057155510636</v>
+        <v>926.0606266465645</v>
       </c>
       <c r="V9" t="n">
-        <v>728.9050472788933</v>
+        <v>690.9085184148217</v>
       </c>
       <c r="W9" t="n">
-        <v>728.9050472788933</v>
+        <v>436.6711616866201</v>
       </c>
       <c r="X9" t="n">
-        <v>728.9050472788933</v>
+        <v>228.8196614810873</v>
       </c>
       <c r="Y9" t="n">
-        <v>728.9050472788933</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1364.743608328862</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="C11" t="n">
-        <v>995.7810913884502</v>
+        <v>1670.695888779115</v>
       </c>
       <c r="D11" t="n">
-        <v>637.5153927816998</v>
+        <v>1312.430190172364</v>
       </c>
       <c r="E11" t="n">
-        <v>251.7271401834556</v>
+        <v>926.6419375741198</v>
       </c>
       <c r="F11" t="n">
-        <v>251.7271401834556</v>
+        <v>515.6560327845123</v>
       </c>
       <c r="G11" t="n">
-        <v>251.7271401834556</v>
+        <v>97.69222468269913</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69222468269913</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5047,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.743608328862</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="12">
@@ -5123,28 +5123,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073964</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C13" t="n">
-        <v>667.8624625746712</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D13" t="n">
-        <v>517.7458231623355</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E13" t="n">
         <v>369.8327295799424</v>
@@ -5238,13 +5238,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1995.909162857192</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W14" t="n">
-        <v>2642.120401548716</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X14" t="n">
-        <v>2642.120401548716</v>
+        <v>1787.900190565266</v>
       </c>
       <c r="Y14" t="n">
-        <v>2382.509002921313</v>
+        <v>1397.760858589454</v>
       </c>
     </row>
     <row r="15">
@@ -5339,13 +5339,13 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5360,22 +5360,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="C16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="D16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="E16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>205.7841908113099</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.9823256406182</v>
+        <v>352.6741383092202</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.5386780278486</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C17" t="n">
-        <v>53.94298182036445</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D17" t="n">
-        <v>53.94298182036445</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2048.575150942547</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V17" t="n">
-        <v>1717.512263598976</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W17" t="n">
-        <v>1364.743608328862</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="X17" t="n">
-        <v>991.2778500677821</v>
+        <v>2013.546485980902</v>
       </c>
       <c r="Y17" t="n">
-        <v>601.1385180919704</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5600,37 +5600,37 @@
         <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>288.5951747571381</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>140.682081174745</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>140.682081174745</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1387.385938321513</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C20" t="n">
-        <v>1018.423421381101</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>1018.423421381101</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>1018.423421381101</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>607.4375165914937</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733123</v>
@@ -5779,25 +5779,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.514423990285</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>2147.451536646714</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W20" t="n">
-        <v>2147.451536646714</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X20" t="n">
-        <v>1773.985778385635</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1773.985778385635</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
@@ -5840,16 +5840,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5934,22 +5934,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>723.5291432316174</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>509.2407200497801</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
         <v>53.94298182036445</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>903.5661947296837</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="C23" t="n">
-        <v>534.603677789272</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D23" t="n">
-        <v>534.603677789272</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E23" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F23" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
@@ -6001,7 +6001,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U23" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2189.908715988822</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>1837.140060718708</v>
+        <v>1693.891184231761</v>
       </c>
       <c r="X23" t="n">
-        <v>1463.674302457628</v>
+        <v>1320.425425970681</v>
       </c>
       <c r="Y23" t="n">
-        <v>1290.166034793805</v>
+        <v>1320.425425970681</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6071,13 +6071,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6089,22 +6089,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240418</v>
+        <v>352.9077032926431</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240418</v>
+        <v>206.0177557947327</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610024</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240418</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750.1002187247734</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="C26" t="n">
-        <v>381.1377017843616</v>
+        <v>951.4629090302697</v>
       </c>
       <c r="D26" t="n">
-        <v>381.1377017843616</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y26" t="n">
-        <v>750.1002187247734</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="27">
@@ -6296,40 +6296,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073963</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940987</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117056</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>261.099450950038</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>103.3510783825681</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6429,7 +6429,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064344</v>
+        <v>532.5980335608502</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1293.182375355301</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C29" t="n">
-        <v>1293.182375355301</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.182375355301</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E29" t="n">
-        <v>907.3941227570563</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>496.4082179674487</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>496.4082179674487</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>169.2134980034515</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.387305656314</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W29" t="n">
-        <v>2443.387305656314</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X29" t="n">
-        <v>2069.921547395234</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y29" t="n">
-        <v>1679.782215419422</v>
+        <v>1647.620145934678</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6539,46 +6539,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2636.818952052699</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C31" t="n">
-        <v>2467.882769124792</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D31" t="n">
-        <v>2317.766129712456</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E31" t="n">
-        <v>2169.853036130063</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>208.5445361866202</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>799.1015098861748</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="C32" t="n">
-        <v>799.1015098861748</v>
+        <v>1335.564556632711</v>
       </c>
       <c r="D32" t="n">
-        <v>799.1015098861748</v>
+        <v>977.2988580259605</v>
       </c>
       <c r="E32" t="n">
-        <v>799.1015098861748</v>
+        <v>977.2988580259605</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X32" t="n">
-        <v>1112.426648284105</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="Y32" t="n">
-        <v>799.1015098861748</v>
+        <v>1704.527073573123</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6794,28 +6794,28 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2697.149091018222</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U34" t="n">
-        <v>2697.149091018222</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V34" t="n">
-        <v>2442.464602812336</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>2153.047432775375</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1314.552099519291</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C35" t="n">
-        <v>945.5895825788796</v>
+        <v>1335.56455663271</v>
       </c>
       <c r="D35" t="n">
-        <v>945.5895825788796</v>
+        <v>977.29885802596</v>
       </c>
       <c r="E35" t="n">
-        <v>945.5895825788796</v>
+        <v>591.5106054277157</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>1998.383642132976</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V35" t="n">
-        <v>1667.320754789405</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W35" t="n">
-        <v>1314.552099519291</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X35" t="n">
-        <v>1314.552099519291</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y35" t="n">
-        <v>1314.552099519291</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="36">
@@ -6998,16 +6998,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,25 +7016,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7101,46 +7101,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V37" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>65.0584309830497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1331.377835177124</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="C38" t="n">
-        <v>1331.377835177124</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="D38" t="n">
-        <v>1331.377835177124</v>
+        <v>1426.815961912944</v>
       </c>
       <c r="E38" t="n">
-        <v>945.5895825788796</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G38" t="n">
         <v>534.603677789272</v>
@@ -7180,7 +7180,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284806</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X38" t="n">
-        <v>1717.977675241246</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y38" t="n">
-        <v>1717.977675241246</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
@@ -7265,31 +7265,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U40" t="n">
-        <v>417.5768819848216</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V40" t="n">
-        <v>417.5768819848216</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W40" t="n">
-        <v>417.5768819848216</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X40" t="n">
-        <v>417.5768819848216</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y40" t="n">
-        <v>417.5768819848216</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.641263708175</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.678746767763</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D41" t="n">
-        <v>1198.678746767763</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E41" t="n">
-        <v>812.8904941695187</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F41" t="n">
-        <v>401.9045893799111</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
         <v>53.94298182036445</v>
@@ -7411,19 +7411,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7444,19 +7444,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2585.28265559854</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748108</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.380435748108</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.241103772296</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
         <v>53.94298182036445</v>
@@ -7493,46 +7493,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C43" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D43" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V43" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W43" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X43" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1161.086123514381</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>792.1236065739693</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D44" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036445</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7687,13 +7687,13 @@
         <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1547.685963578503</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,13 +7727,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
         <v>1194.968834417902</v>
@@ -7748,22 +7748,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.69838933464703</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>97.69838933464703</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D46" t="n">
-        <v>97.69838933464703</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7845,13 +7845,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>500.1394333084169</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y46" t="n">
-        <v>279.3468541648867</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
   </sheetData>
@@ -8063,19 +8063,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>257.474315845752</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>373.8491954283778</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996773</v>
+        <v>256.7457850062996</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236954</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>130.8188201934041</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9649,7 +9649,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10442,13 +10442,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22558,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>174.5457301614682</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>267.3928735857801</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>247.1144340662031</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>138.1711093023382</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>201.2414235542941</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>120.6824901653329</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>83.09153091624525</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>71.21887160855115</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22953,22 +22953,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>8.339482357833191</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>66.65092196225274</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247591</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>17.04536409762341</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>100.2996914017153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296158</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>128.116455984897</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>108.6195658111499</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>264.9994355661241</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>83.08841053406425</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16.98700535801498</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>206.2831525255983</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23782,10 +23782,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>251.45081570889</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>81.43809389821416</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23946,10 +23946,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>341.6786696065955</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>108.1804568358191</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24174,25 +24174,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>142.1113494150889</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>151.4403873348987</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>214.4647536688694</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72.67053247541037</v>
+        <v>16.75577602442632</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,16 +24417,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>23.43825742211021</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,10 +24460,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>201.9504862012863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>86.05160619575659</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>25.00901221296644</v>
       </c>
     </row>
     <row r="29">
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>37.81350522360503</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>329.9000802939937</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.1051426060691</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>3.115350019201941</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>382.3919873281848</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,10 +24982,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>76.04605164210255</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25128,19 +25128,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>288.4682683912287</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>4.788808853336661</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8276855108789</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>319.300424552333</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>195.7761453953444</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8703985006655</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>275.5187036655326</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>69.30217853684383</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>140.476396442804</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>103.670039652534</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>242.4444433082501</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>133.680862922387</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21.71991446142505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>81.37511273779134</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.9919488199112</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26085,13 +26085,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945849</v>
+        <v>476879.8686487639</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473796.0964945848</v>
+        <v>492874.1898834558</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>801686.0546829647</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26340,13 +26340,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133941</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.718513394</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753564</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>407720.4376835741</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.2558024571694</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847434</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>102434.1176906351</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="C4" t="n">
-        <v>33649.84678425771</v>
+        <v>33663.59862924286</v>
       </c>
       <c r="D4" t="n">
-        <v>33649.84678425771</v>
+        <v>33719.40849968307</v>
       </c>
       <c r="E4" t="n">
         <v>35944.74664026682</v>
@@ -26438,19 +26438,19 @@
         <v>35944.74664026681</v>
       </c>
       <c r="I4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
+        <v>35944.74664026682</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35944.74664026682</v>
+      </c>
+      <c r="M4" t="n">
         <v>35944.74664026681</v>
-      </c>
-      <c r="L4" t="n">
-        <v>35944.74664026681</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
         <v>35944.74664026682</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26496,10 +26496,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793459</v>
+        <v>-33681.98604797505</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361311</v>
+        <v>43329.60333142115</v>
       </c>
       <c r="D6" t="n">
-        <v>59305.45610361315</v>
+        <v>29261.28841583878</v>
       </c>
       <c r="E6" t="n">
-        <v>-272242.6802332785</v>
+        <v>-253185.3576196757</v>
       </c>
       <c r="F6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="G6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="H6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="I6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.5512106114</v>
+        <v>91475.13746479215</v>
       </c>
       <c r="K6" t="n">
-        <v>160603.4938097178</v>
+        <v>153621.8242614412</v>
       </c>
       <c r="L6" t="n">
-        <v>160603.4938097176</v>
+        <v>149807.516945051</v>
       </c>
       <c r="M6" t="n">
-        <v>52630.1331356594</v>
+        <v>52100.96237326343</v>
       </c>
       <c r="N6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="O6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="P6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170867</v>
@@ -26770,13 +26770,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26816,10 +26816,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.3395197935473</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>354.730281530297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483453</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.0452388028886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.67930159052449</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34783,19 +34783,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>91.0829537758999</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>117.3425372005508</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604673</v>
       </c>
       <c r="M9" t="n">
-        <v>241.014288877659</v>
+        <v>127.1540446485817</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036207</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K17" t="n">
         <v>297.223041434342</v>
@@ -35968,7 +35968,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L20" t="n">
         <v>421.5361394435302</v>
@@ -36208,7 +36208,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36369,7 +36369,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36439,13 +36439,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338903</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
         <v>478.8956552492237</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
         <v>297.223041434342</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
